--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad Complutense de Madrid (UCM)\R_projects\EvaluacionPresidente\evaluacion-presidente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{FD0F6339-2CCB-4D7C-897C-BE35584CFE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA5812D6-D7C5-4176-9C08-23511FFA3312}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="6_{8C380393-93E7-487C-A61D-27172AC1A7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05DFCE94-8AAB-4B1F-8298-C601636A90DF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{62109279-5062-45FF-B4E9-7C7CB2FF1DDC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>event</t>
   </si>
@@ -47,15 +47,9 @@
     <t>group</t>
   </si>
   <si>
-    <t>Elecciones</t>
-  </si>
-  <si>
     <t>Hitos</t>
   </si>
   <si>
-    <t>Anuncio Coalición</t>
-  </si>
-  <si>
     <t>Investidura</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Test 5</t>
   </si>
   <si>
-    <t>Fase 1 desescalada</t>
-  </si>
-  <si>
     <t>B. Poselectoral</t>
   </si>
   <si>
@@ -105,6 +96,12 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>Coalición</t>
+  </si>
+  <si>
+    <t>Fase 1</t>
   </si>
 </sst>
 </file>
@@ -149,9 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A1CACD-C845-4B7D-B2A1-705DD55E4B3D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -492,99 +488,114 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43751</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>43748</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43750</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43838</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43839</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43838</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43905</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43906</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43905</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43962</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43963</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43962</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43798</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43818</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>43798</v>
+        <v>43832</v>
       </c>
       <c r="C7" s="1">
-        <v>43818</v>
+        <v>43843</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>43832</v>
@@ -593,32 +604,32 @@
         <v>43843</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="C9" s="1">
-        <v>43843</v>
+        <v>43872</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>43862</v>
@@ -627,32 +638,32 @@
         <v>43872</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C11" s="1">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>43891</v>
@@ -661,32 +672,32 @@
         <v>43903</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>43891</v>
+        <v>43920</v>
       </c>
       <c r="C13" s="1">
-        <v>43903</v>
+        <v>43928</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>43920</v>
@@ -695,44 +706,27 @@
         <v>43928</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43920</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43928</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43955</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43964</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -742,6 +736,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010009816F917F83E7418FE969C8DF633C73" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7b9060d6284048dce50422624b6696dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dada6164-e35d-42c5-96af-bbc193e231b4" xmlns:ns4="46fe47c1-65d3-4f9c-a8d2-c8e0bd3a1fe3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a91053ccb76d158eeaaeb9759cfe52f2" ns3:_="" ns4:_="">
     <xsd:import namespace="dada6164-e35d-42c5-96af-bbc193e231b4"/>
@@ -958,22 +967,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8525A9FC-DA53-480F-802B-2993ACE6AE6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFAE7799-27E6-4A6F-B639-3CE9CCAE7D24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2AACFB-FD2E-4B5B-A89E-29C345DDBEF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -990,21 +1001,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFAE7799-27E6-4A6F-B639-3CE9CCAE7D24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8525A9FC-DA53-480F-802B-2993ACE6AE6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>